--- a/Input/CMPG323 EcoPower Logistics Data.xlsx
+++ b/Input/CMPG323 EcoPower Logistics Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIPath\Connected Office Web Application User Acceptance Testing\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3311BB18-151A-43E8-A547-C7023F4D2500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9F1471-EC02-4017-BB6F-998C93F0E817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3096" yWindow="1920" windowWidth="16404" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>CustomerId</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Mount Vernon New York United States 10550</t>
   </si>
   <si>
-    <t>Laurel Maryland United States 20707</t>
-  </si>
-  <si>
     <t>Omaha Nebraska United States 68104</t>
   </si>
   <si>
@@ -125,16 +122,10 @@
     <t>Phones</t>
   </si>
   <si>
-    <t>Fasteners</t>
-  </si>
-  <si>
     <t>Plantronics Cordless Phone Headset with In-line Vo</t>
   </si>
   <si>
     <t>IBM Multi-Purpose Copy Paper</t>
-  </si>
-  <si>
-    <t>Advantus Push Pins</t>
   </si>
   <si>
     <t>Test Result</t>
@@ -492,7 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -520,7 +511,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -581,10 +572,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,7 +604,7 @@
         <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -630,40 +621,6 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>713</v>
-      </c>
-      <c r="B3">
-        <v>100048</v>
-      </c>
-      <c r="C3">
-        <v>10001154</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>714</v>
-      </c>
-      <c r="B4">
-        <v>100048</v>
-      </c>
-      <c r="C4">
-        <v>10003012</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
         <v>0</v>
       </c>
     </row>
@@ -674,10 +631,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,7 +660,7 @@
         <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -717,7 +674,7 @@
         <v>18820</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -732,20 +689,6 @@
       </c>
       <c r="D3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>100055</v>
-      </c>
-      <c r="B4" s="1">
-        <v>42883</v>
-      </c>
-      <c r="C4">
-        <v>19420</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -755,10 +698,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,16 +718,16 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -792,10 +735,10 @@
         <v>10000215</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>950</v>
@@ -806,27 +749,13 @@
         <v>10000241</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>10000304</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4">
-        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/Input/CMPG323 EcoPower Logistics Data.xlsx
+++ b/Input/CMPG323 EcoPower Logistics Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIPath\Connected Office Web Application User Acceptance Testing\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nttlimited-my.sharepoint.com/personal/jacqui_muller_dimensiondata_com/Documents/NWU/2023 CMPG323/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9F1471-EC02-4017-BB6F-998C93F0E817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{5546F926-6C85-4EAE-890A-D0833008B810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B224C2EE-D72C-413C-83C8-0FBC3DD6E173}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="113">
   <si>
     <t>CustomerId</t>
   </si>
@@ -59,12 +59,30 @@
     <t>Mr</t>
   </si>
   <si>
+    <t>Mrs</t>
+  </si>
+  <si>
     <t>Miss</t>
   </si>
   <si>
+    <t>Gov</t>
+  </si>
+  <si>
+    <t>Dr</t>
+  </si>
+  <si>
+    <t>Pak</t>
+  </si>
+  <si>
     <t>Ludwig</t>
   </si>
   <si>
+    <t>Christina</t>
+  </si>
+  <si>
+    <t>DeMoss</t>
+  </si>
+  <si>
     <t>Corey-Lock</t>
   </si>
   <si>
@@ -74,12 +92,63 @@
     <t>Brown</t>
   </si>
   <si>
+    <t>Miller</t>
+  </si>
+  <si>
     <t>Ed</t>
   </si>
   <si>
+    <t>Bern</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Klamczynski</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Cousins</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Oakman</t>
+  </si>
+  <si>
     <t>Mick</t>
   </si>
   <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Gardner</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>Sperren</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>Sung</t>
+  </si>
+  <si>
+    <t>Thais</t>
+  </si>
+  <si>
+    <t>Sissman</t>
+  </si>
+  <si>
     <t>OrderDetailsID</t>
   </si>
   <si>
@@ -101,12 +170,48 @@
     <t>DeliveryAddress</t>
   </si>
   <si>
+    <t>4 Steve Biko Street</t>
+  </si>
+  <si>
     <t>Mount Vernon New York United States 10550</t>
   </si>
   <si>
+    <t>Laurel Maryland United States 20707</t>
+  </si>
+  <si>
     <t>Omaha Nebraska United States 68104</t>
   </si>
   <si>
+    <t>Medford Oregon United States 97504</t>
+  </si>
+  <si>
+    <t>San Francisco California United States 94122</t>
+  </si>
+  <si>
+    <t>New York City New York United States 10009</t>
+  </si>
+  <si>
+    <t>New York City New York United States 10035</t>
+  </si>
+  <si>
+    <t>Camarillo California United States 93010</t>
+  </si>
+  <si>
+    <t>Norman Oklahoma United States 73071</t>
+  </si>
+  <si>
+    <t>Philadelphia Pennsylvania United States 19134</t>
+  </si>
+  <si>
+    <t>Anaheim California United States 92804</t>
+  </si>
+  <si>
+    <t>Portland Oregon United States 97206</t>
+  </si>
+  <si>
+    <t>Mesa Arizona United States 85204</t>
+  </si>
+  <si>
     <t>ProductName</t>
   </si>
   <si>
@@ -116,16 +221,160 @@
     <t>UnitsInStock</t>
   </si>
   <si>
+    <t>Furnishings</t>
+  </si>
+  <si>
+    <t>Binders</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
     <t>Paper</t>
   </si>
   <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Appliances</t>
+  </si>
+  <si>
     <t>Phones</t>
   </si>
   <si>
+    <t>Fasteners</t>
+  </si>
+  <si>
+    <t>Envelopes</t>
+  </si>
+  <si>
+    <t>Accessories</t>
+  </si>
+  <si>
+    <t>Labels</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
     <t>Plantronics Cordless Phone Headset with In-line Vo</t>
   </si>
   <si>
     <t>IBM Multi-Purpose Copy Paper</t>
+  </si>
+  <si>
+    <t>Advantus Push Pins</t>
+  </si>
+  <si>
+    <t>Bookcases</t>
+  </si>
+  <si>
+    <t>Pressboard Covers with Storage Hooks</t>
+  </si>
+  <si>
+    <t>Xerox 189</t>
+  </si>
+  <si>
+    <t>SimpliFile Personal File</t>
+  </si>
+  <si>
+    <t>Adams Phone Message Book</t>
+  </si>
+  <si>
+    <t>Xerox 210</t>
+  </si>
+  <si>
+    <t>TOPS Important Message Pads</t>
+  </si>
+  <si>
+    <t>Bionaire Personal Warm Mist Humidifier/Vaporizer</t>
+  </si>
+  <si>
+    <t>Global Troy Executive Leather Low-Back Tilter</t>
+  </si>
+  <si>
+    <t>SanDisk Cruzer 64 GB USB Flash Drive</t>
+  </si>
+  <si>
+    <t>Fellowes Bankers Box Recycled Super Stor/Drawer</t>
+  </si>
+  <si>
+    <t>DAX Wood Document Frame</t>
+  </si>
+  <si>
+    <t>Poly String Tie Envelopes</t>
+  </si>
+  <si>
+    <t>Wilson Jones Ledger-Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logitech Wireless Performance Mouse MX for PC and </t>
+  </si>
+  <si>
+    <t>Ampad Poly Cover Wirebound Steno Book</t>
+  </si>
+  <si>
+    <t>Memorex Mini Travel Drive 16 GB USB 2.0 Flash Driv</t>
+  </si>
+  <si>
+    <t>Dana Halogen Swing-Arm Architect Lamp</t>
+  </si>
+  <si>
+    <t>Logitech LS21 Speaker System - PC Multimedia - 2.1</t>
+  </si>
+  <si>
+    <t>Wilson Jones Easy Flow II Sheet Lifters</t>
+  </si>
+  <si>
+    <t>Panasonic KX T7731-B Digital phone</t>
+  </si>
+  <si>
+    <t>Avery 519</t>
+  </si>
+  <si>
+    <t>Adtran 1202752G1</t>
+  </si>
+  <si>
+    <t>Situations Contoured Folding Chairs</t>
+  </si>
+  <si>
+    <t>Magna Visual Magnetic Picture Hangers</t>
+  </si>
+  <si>
+    <t>Xerox 1973</t>
+  </si>
+  <si>
+    <t>Nortel Meridian M3904 Professional Digital phone</t>
+  </si>
+  <si>
+    <t>Global Leather Task Chair</t>
+  </si>
+  <si>
+    <t>Peel &amp; Seel Envelopes</t>
+  </si>
+  <si>
+    <t>DataProducts Ampli Magnifier Task Lamp</t>
+  </si>
+  <si>
+    <t>Hon 2111 Invitation Series Corner Table</t>
+  </si>
+  <si>
+    <t>Novimex Fabric Task Chair</t>
+  </si>
+  <si>
+    <t>Hon Valutask Swivel Chairs</t>
+  </si>
+  <si>
+    <t>Bush Andora Bookcase</t>
+  </si>
+  <si>
+    <t>Hon 4070 Series Pagoda Armless Upholstered Stackin</t>
+  </si>
+  <si>
+    <t>Global Leather and Oak Executive Chair</t>
+  </si>
+  <si>
+    <t>Cisco 8x8 Inc. 6753i IP Business Phone System</t>
   </si>
   <si>
     <t>Test Result</t>
@@ -481,20 +730,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,27 +760,27 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12280</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>8945409882</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5723177115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12640</v>
       </c>
@@ -539,16 +788,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>9041993848</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13735</v>
       </c>
@@ -556,13 +805,183 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
       </c>
       <c r="E4">
         <v>3738283528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>15325</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>6447102299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>16240</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>1878764468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>17425</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>9666552669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>17950</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>2384982848</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>18085</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>8945409882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>18820</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10">
+        <v>1320602595</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>19420</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <v>7968612324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>20320</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>1578247192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>20860</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>7425817353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>21085</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14">
+        <v>5815761997</v>
       </c>
     </row>
   </sheetData>
@@ -572,42 +991,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>456</v>
       </c>
@@ -621,6 +1040,669 @@
         <v>4</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>713</v>
+      </c>
+      <c r="B3">
+        <v>100048</v>
+      </c>
+      <c r="C3">
+        <v>10001154</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>714</v>
+      </c>
+      <c r="B4">
+        <v>100048</v>
+      </c>
+      <c r="C4">
+        <v>10003012</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>715</v>
+      </c>
+      <c r="B5">
+        <v>100048</v>
+      </c>
+      <c r="C5">
+        <v>10001606</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>977</v>
+      </c>
+      <c r="B6">
+        <v>100209</v>
+      </c>
+      <c r="C6">
+        <v>10002012</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1894</v>
+      </c>
+      <c r="B7">
+        <v>100083</v>
+      </c>
+      <c r="C7">
+        <v>10000241</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2822</v>
+      </c>
+      <c r="B8">
+        <v>100202</v>
+      </c>
+      <c r="C8">
+        <v>10002563</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4152</v>
+      </c>
+      <c r="B9">
+        <v>100160</v>
+      </c>
+      <c r="C9">
+        <v>10002475</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4153</v>
+      </c>
+      <c r="B10">
+        <v>100160</v>
+      </c>
+      <c r="C10">
+        <v>10003072</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4154</v>
+      </c>
+      <c r="B11">
+        <v>100160</v>
+      </c>
+      <c r="C11">
+        <v>10001509</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4170</v>
+      </c>
+      <c r="B12">
+        <v>100216</v>
+      </c>
+      <c r="C12">
+        <v>10000788</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4171</v>
+      </c>
+      <c r="B13">
+        <v>100216</v>
+      </c>
+      <c r="C13">
+        <v>10002968</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4407</v>
+      </c>
+      <c r="B14">
+        <v>100041</v>
+      </c>
+      <c r="C14">
+        <v>10001622</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4408</v>
+      </c>
+      <c r="B15">
+        <v>100041</v>
+      </c>
+      <c r="C15">
+        <v>10000418</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4409</v>
+      </c>
+      <c r="B16">
+        <v>100041</v>
+      </c>
+      <c r="C16">
+        <v>10000343</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6091</v>
+      </c>
+      <c r="B17">
+        <v>100111</v>
+      </c>
+      <c r="C17">
+        <v>10003846</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6092</v>
+      </c>
+      <c r="B18">
+        <v>100111</v>
+      </c>
+      <c r="C18">
+        <v>10002647</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6093</v>
+      </c>
+      <c r="B19">
+        <v>100111</v>
+      </c>
+      <c r="C19">
+        <v>10000807</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6094</v>
+      </c>
+      <c r="B20">
+        <v>100111</v>
+      </c>
+      <c r="C20">
+        <v>10001465</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>6095</v>
+      </c>
+      <c r="B21">
+        <v>100111</v>
+      </c>
+      <c r="C21">
+        <v>10000615</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>6096</v>
+      </c>
+      <c r="B22">
+        <v>100111</v>
+      </c>
+      <c r="C22">
+        <v>10002713</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>6097</v>
+      </c>
+      <c r="B23">
+        <v>100111</v>
+      </c>
+      <c r="C23">
+        <v>10003061</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>6098</v>
+      </c>
+      <c r="B24">
+        <v>100111</v>
+      </c>
+      <c r="C24">
+        <v>10000343</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>6099</v>
+      </c>
+      <c r="B25">
+        <v>100111</v>
+      </c>
+      <c r="C25">
+        <v>10000304</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>6100</v>
+      </c>
+      <c r="B26">
+        <v>100111</v>
+      </c>
+      <c r="C26">
+        <v>10004086</v>
+      </c>
+      <c r="D26">
+        <v>11</v>
+      </c>
+      <c r="E26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>6101</v>
+      </c>
+      <c r="B27">
+        <v>100111</v>
+      </c>
+      <c r="C27">
+        <v>10002885</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>6102</v>
+      </c>
+      <c r="B28">
+        <v>100111</v>
+      </c>
+      <c r="C28">
+        <v>10001215</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>6103</v>
+      </c>
+      <c r="B29">
+        <v>100111</v>
+      </c>
+      <c r="C29">
+        <v>10000215</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>6104</v>
+      </c>
+      <c r="B30">
+        <v>100111</v>
+      </c>
+      <c r="C30">
+        <v>10001998</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>6288</v>
+      </c>
+      <c r="B31">
+        <v>100090</v>
+      </c>
+      <c r="C31">
+        <v>10003715</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>6289</v>
+      </c>
+      <c r="B32">
+        <v>100090</v>
+      </c>
+      <c r="C32">
+        <v>10001597</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>7320</v>
+      </c>
+      <c r="B33">
+        <v>100097</v>
+      </c>
+      <c r="C33">
+        <v>10002310</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>7321</v>
+      </c>
+      <c r="B34">
+        <v>100097</v>
+      </c>
+      <c r="C34">
+        <v>10003623</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>7404</v>
+      </c>
+      <c r="B35">
+        <v>100146</v>
+      </c>
+      <c r="C35">
+        <v>10004015</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>7405</v>
+      </c>
+      <c r="B36">
+        <v>100146</v>
+      </c>
+      <c r="C36">
+        <v>10001979</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>7406</v>
+      </c>
+      <c r="B37">
+        <v>100146</v>
+      </c>
+      <c r="C37">
+        <v>10003833</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>7407</v>
+      </c>
+      <c r="B38">
+        <v>100146</v>
+      </c>
+      <c r="C38">
+        <v>10004495</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>9132</v>
+      </c>
+      <c r="B39">
+        <v>100055</v>
+      </c>
+      <c r="C39">
+        <v>10001473</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>9133</v>
+      </c>
+      <c r="B40">
+        <v>100055</v>
+      </c>
+      <c r="C40">
+        <v>10001469</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>9737</v>
+      </c>
+      <c r="B41">
+        <v>100069</v>
+      </c>
+      <c r="C41">
+        <v>10004667</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
         <v>0</v>
       </c>
     </row>
@@ -631,39 +1713,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A4:D4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100041</v>
       </c>
@@ -674,10 +1756,10 @@
         <v>18820</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100048</v>
       </c>
@@ -688,7 +1770,175 @@
         <v>13735</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100055</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42883</v>
+      </c>
+      <c r="C4">
+        <v>19420</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>100069</v>
+      </c>
+      <c r="B5" s="1">
+        <v>42184</v>
+      </c>
+      <c r="C5">
+        <v>20860</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>100083</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42698</v>
+      </c>
+      <c r="C6">
+        <v>20860</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>100090</v>
+      </c>
+      <c r="B7" s="1">
+        <v>41828</v>
+      </c>
+      <c r="C7">
+        <v>15325</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>100097</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43065</v>
+      </c>
+      <c r="C8">
+        <v>18085</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>100111</v>
+      </c>
+      <c r="B9" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C9">
+        <v>17950</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>100146</v>
+      </c>
+      <c r="B10" s="1">
+        <v>42138</v>
+      </c>
+      <c r="C10">
+        <v>12280</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>100153</v>
+      </c>
+      <c r="B11" s="1">
+        <v>42717</v>
+      </c>
+      <c r="C11">
+        <v>16240</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>100160</v>
+      </c>
+      <c r="B12" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C12">
+        <v>17425</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>100202</v>
+      </c>
+      <c r="B13" s="1">
+        <v>42735</v>
+      </c>
+      <c r="C13">
+        <v>20320</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>100209</v>
+      </c>
+      <c r="B14" s="1">
+        <v>42925</v>
+      </c>
+      <c r="C14">
+        <v>21085</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>100216</v>
+      </c>
+      <c r="B15" s="1">
+        <v>42107</v>
+      </c>
+      <c r="C15">
+        <v>12640</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -698,64 +1948,582 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10000215</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D2">
         <v>950</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10000241</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10000304</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10000343</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10000418</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10000615</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10000788</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10000807</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10001154</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10001215</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10001465</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10001469</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10001473</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10001509</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10001597</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10001606</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10001622</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10001772</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10001979</v>
+      </c>
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10001998</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10002012</v>
+      </c>
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10002310</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10002475</v>
+      </c>
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10002563</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>10002647</v>
+      </c>
+      <c r="B26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10002713</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>10002885</v>
+      </c>
+      <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10002968</v>
+      </c>
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10003012</v>
+      </c>
+      <c r="B30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10003061</v>
+      </c>
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>10003072</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>10003623</v>
+      </c>
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>10003715</v>
+      </c>
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>10003833</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>10003846</v>
+      </c>
+      <c r="B36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>10004015</v>
+      </c>
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>10004086</v>
+      </c>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>10004495</v>
+      </c>
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>10004667</v>
+      </c>
+      <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40">
+        <v>557</v>
       </c>
     </row>
   </sheetData>
